--- a/biology/Zoologie/Conus_arenatus/Conus_arenatus.xlsx
+++ b/biology/Zoologie/Conus_arenatus/Conus_arenatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cône ensablé, Cône ponctué
 Conus arenatus, aussi appelé « cône ensablé » et « cône ponctué », est un gastéropode carnivore de la famille des conidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet animal a été décrit par Jean-Guillaume Bruguière en 1792.
 Sa coquille est lourde et épaisse, elle mesure entre 2 et 5 cm. Il possède une spire basse et conique. Les tours de spire ont des tubercules proéminents. Son épaulement est arrondi. Les côtés sont légèrement bombés et la columelle est arquée. Ses motifs sont caractérisés par de nombreux petits points noirs plus ou moins grossièrement alignés sur un fond blanc ou crème.
@@ -548,7 +562,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Océan Indien et Pacifique occidental (Queensland).
 </t>
@@ -579,7 +595,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Zone intertidal (ou estran).
 </t>
